--- a/Dataset/AvarageOf_Some(SoutherAsiaVSNordic country).xlsx
+++ b/Dataset/AvarageOf_Some(SoutherAsiaVSNordic country).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakhawat/Desktop/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakhawat/Desktop/group-65-7com1079-coursework/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB19F96A-5CC6-944D-8D91-1424EB762382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3DF286-2E56-8F41-B586-2DE3B69AF8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{31224D83-9DC7-3B40-8C91-BEE997989E59}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{31224D83-9DC7-3B40-8C91-BEE997989E59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
